--- a/medicine/Mort/Décès_en_1956/Décès_en_1956.xlsx
+++ b/medicine/Mort/Décès_en_1956/Décès_en_1956.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1956</t>
+          <t>Décès_en_1956</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1956</t>
+          <t>Décès_en_1956</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,16 +540,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Conrad Hector Raffaele Carelli, peintre aquarelliste italien (° 1866).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Conrad Hector Raffaele Carelli, peintre aquarelliste italien (° 1866).
 Albert Copieux, peintre, aquarelliste et graveur français (° 1885).
 Nicolas De Corsi, peintre italien (° 5 août 1882).
 Émile Delobre, peintre français (° 20 février 1873).
 Constant Duval, peintre, affichiste et dessinateur français (° 30 octobre 1877).
 Anne-Marie Feuchères, peintre et pastelliste française (° 1892).
-Emilio Sommariva, photographe et peintre italien (° 1883).
-Janvier
-1er janvier : Octave Join-Lambert, archéologue et peintre français (° 4 juin 1870).
+Emilio Sommariva, photographe et peintre italien (° 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Octave Join-Lambert, archéologue et peintre français (° 4 juin 1870).
 3 janvier : Pierre Flye Sainte-Marie, officier, explorateur et peintre français (° 8 mars 1869).
 5 janvier : Mistinguett (Jeanne Bourgeois), chanteuse, danseuse française (° 3 avril 1875).
 7 janvier : Émile Forget, contre-amiral français (° 4 août 1872).
@@ -560,9 +611,43 @@
 23 janvier : Sir Alexander Korda, cinéaste britannique d'origine hongroise (° 16 septembre 1893).
 29 janvier :
 Ciro Galvani, acteur italien (° 10 avril 1867).
-Juan Pellicer, footballeur espagnol (° 21 février 1901).
-Février
-1er février : Oscar Bossaert, homme politique, industriel et footballeur belge (° 5 novembre 1887).
+Juan Pellicer, footballeur espagnol (° 21 février 1901).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Oscar Bossaert, homme politique, industriel et footballeur belge (° 5 novembre 1887).
 2 février : Piotr Kontchalovski, peintre russe (° 21 février 1876).
 3 février : Emile Borel, Mathématicien français (° 7 février 1871).
 6 février :
@@ -581,9 +666,43 @@
 28 février :
 Louis Bernard, homme politique français (° 26 janvier 1886).
 Charles Cruchon, coureur cycliste français (° 20 mai 1883).
-? février : Claude Guillon-Verne, compositeur et chroniqueur musical français (° 26 septembre 1879).
-Mars
-7 mars : Louise Lavrut, peintre française (° 28 février 1874).
+? février : Claude Guillon-Verne, compositeur et chroniqueur musical français (° 26 septembre 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>7 mars : Louise Lavrut, peintre française (° 28 février 1874).
 9 mars : Joseph Bergès, peintre français (° 31 mai 1878).
 10 mars : Jan Zaorski, chirurgien et universitaire polonais (° 6 mai 1887).
 11 mars : Peter Petersen, acteur allemand et autrichien (° 18 novembre 1876).
@@ -604,9 +723,43 @@
 Eleanor Whitton, militante pour les droits des animaux (° 1879).
 29 mars : Olena Kysilevska, journaliste, écrivaine et femme politique ukrainienne (° 24 mars 1869).
 30 mars : Arthur Hartmann, violoniste, altiste et compositeur américain (° 22 juillet 1881).
-? mars : Henri Deraedt, homme politique belge (° 23 décembre 1888).
-Avril
-2 avril : Filippo De Pisis, peintre italien (° 11 mai 1896).
+? mars : Henri Deraedt, homme politique belge (° 23 décembre 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Filippo De Pisis, peintre italien (° 11 mai 1896).
 3 avril : Carlos Ibarguren, universitaire, juriste, historien et homme politique argentin (° 18 avril 1877).
 7 avril : Gabriel Antoine Barlangue, dessinateur, graveur, illustrateur et peintre français (° 24 février 1874).
 13 avril :
@@ -619,9 +772,43 @@
 24 avril : Henry Stephenson, acteur anglais (° 16 avril 1871).
 26 avril : Edward Arnold, acteur américain (° 18 février 1890).
 28 avril : Vigor Lindberg, footballeur international suédois (° 26 avril 1899).
-29 avril : Giuseppe Ferdinando Piana, peintre italien (° 3 décembre 1864).
-Mai
-5 mai : Aimée Rapin, peintre suisse (° 14 décembre 1868).
+29 avril : Giuseppe Ferdinando Piana, peintre italien (° 3 décembre 1864).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5 mai : Aimée Rapin, peintre suisse (° 14 décembre 1868).
 6 mai : Arthur Vanderstuyft, coureur cycliste belge (° 23 décembre 1883).
 13 mai : Alexandre Fadeïev, romancier russe puis soviétique (° 24 décembre 1901).
 18 mai : Auber Octavius Neville, homme politique britannique puis australien (° 20 novembre 1875)
@@ -631,9 +818,43 @@
 Jos Jullien, médecin généraliste, homme politique, préhistorien, peintre, graveur et homme de lettres français (° 2 janvier 1877).
 Richard Stanton, acteur et réalisateur américain (° 8 octobre 1876).
 23 mai : André Villeboeuf, illustrateur, peintre, aquarelliste, graveur, écrivain et décorateur de théâtre français (° 2 avril 1893).
-29 mai : Juan Pistarini, général et homme politique argentin (° 23 décembre 1882).
-Juin
-1er juin : Pierre Brune, peintre français (° 26 janvier 1887).
+29 mai : Juan Pistarini, général et homme politique argentin (° 23 décembre 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Pierre Brune, peintre français (° 26 janvier 1887).
 7 juin : Julien Benda, écrivain et philosophe français (° 26 décembre 1867).
 8 juin : Marie Laurencin, peintre français (° 31 octobre 1883).
 14 juin : Alport Barker, propriétaire de journal et homme politique fidjien (° vers 1874).
@@ -645,9 +866,43 @@
 18 juin : Dawson Trotman, Évangéliste américain (° 25 mars 1906).
 22 juin : Pierre-Albert Bégaud, peintre portraitiste et paysagiste français (°  19 septembre 1901).
 23 juin : Reinhold Glière, compositeur postromantique russe puis soviétique d'origine allemande (° 11 janvier 1875).
-25 juin : Michio Miyagi, musicien et compositeur de koto japonais (° 7 avril 1894).
-Juillet
-7 juillet : Gottfried Benn, écrivain allemand (° 2 mai 1886).
+25 juin : Michio Miyagi, musicien et compositeur de koto japonais (° 7 avril 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7 juillet : Gottfried Benn, écrivain allemand (° 2 mai 1886).
 10 juillet : Antonio Discovolo, peintre italien (° 25 décembre 1874).
 12 juillet : Maurice Auguste Lippens, homme d'État belge (° 21 août 1875).
 16 juillet : Stanley Blystone, acteur américain (° 1er août 1894).
@@ -655,9 +910,43 @@
 Alessandro Anzani, pilote de motos, constructeur de moteurs (° 5 décembre 1877).
 Jeanne Judith Croulard, peintre française (° 13 janvier 1875).
 Ella Young, écrivaine irlandaise (° 26 décembre 1867).
-27 juillet, Leopold Petznek, homme politique austro-hongrois puis autrichien (° 30 juin 1881).
-Août
-1er août : René Franquès, footballeur français (° 10 novembre 1910).
+27 juillet, Leopold Petznek, homme politique austro-hongrois puis autrichien (° 30 juin 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : René Franquès, footballeur français (° 10 novembre 1910).
 8 août : Christian Courtois, historien français (° 20 juillet 1912).
 11 août : Jackson Pollock, peintre américain (° 28 janvier 1912).
 14 août :
@@ -675,9 +964,43 @@
 Charles Gallissot, mathématicien et astronome français (° 6 mai 1882).
 27 août : Joseph Notelet, peintre et dessinateur post-impressionniste français (° 28 mars 1874).
 29 août : Émile Gaudissard, architecte, sculpteur, peintre, lithographe, tapissier, décorateur et écrivain français (° 15 décembre 1872).
-30 août : Aita Donostia, prêtre et musicien espagnol (° 10 janvier 1886).
-Septembre
-10 septembre : Clara Beranger, scénariste américaine (° 14 janvier 1886).
+30 août : Aita Donostia, prêtre et musicien espagnol (° 10 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>10 septembre : Clara Beranger, scénariste américaine (° 14 janvier 1886).
 16 septembre : Fernand Jouteux, compositeur et chef d'orchestre français (° 11 janvier 1866).
 24 septembre : Adolfo Konder, homme politique brésilien (° 16 février 1884).
 25 septembre :
@@ -685,9 +1008,43 @@
 Zighoud Youcef, membre du FLN combattant pendant la guerre d'Algérie (° 18 février 1921).
 27 septembre :
 Andrée Benon, peintre paysagiste et portraitiste française (° 17 septembre 1887).
-Gerald Finzi, compositeur britannique (° 14 juillet 1901).
-Octobre
-1er octobre : Stan Ockers, coureur cycliste belge (° 3 février 1920).
+Gerald Finzi, compositeur britannique (° 14 juillet 1901).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Stan Ockers, coureur cycliste belge (° 3 février 1920).
 5 octobre : Joseph Oberthur, peintre, dessinateur et écrivain français (° 25 avril 1872).
 7 octobre :
 Clarence Birdseye, inventeur américain (° 9 décembre 1886).
@@ -703,9 +1060,43 @@
 26 octobre :
 Louis Rosier, coureur automobile français (° 5 novembre 1905).
 Otto Scheff, nageur et homme politique austro-hongrois puis autrichien (° 12 décembre 1889).
-31 octobre : César Espinoza, footballeur chilien (° 28 septembre 1900).
-Novembre
-3 novembre :
+31 octobre : César Espinoza, footballeur chilien (° 28 septembre 1900).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3 novembre :
 Caesar Cardini, restaurateur italien, créateur de la Salade César (° 24 février 1896).
 Jean Metzinger, peintre et graveur français (° 24 juin 1883).
 4 novembre : Jules Saliège, cardinal français, archevêque de Toulouse (° 24 février 1870).
@@ -716,9 +1107,43 @@
 Kazimierz Czyński, acteur, metteur en scène et réalisateur polonais (° 6 février 1891)
 19 novembre : Francis L. Sullivan, acteur anglais (° 6 janvier 1903).
 25 novembre : Alexandre Dovjenko, cinéaste soviétique (° 10 septembre 1894).
-29 novembre : Austin Hudson, homme politique britannique (° 6 février 1897).
-Décembre
-3 décembre : Alexandre Rodtchenko, peintre, sculpteur, photographe et designer russe (° 23 novembre 1891).
+29 novembre : Austin Hudson, homme politique britannique (° 6 février 1897).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1956</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1956</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3 décembre : Alexandre Rodtchenko, peintre, sculpteur, photographe et designer russe (° 23 novembre 1891).
 6 décembre :
 Charles de Kergariou, peintre français (° 10 juillet 1899).
 Bhimrao Ramji Ambedkar, juriste et homme politique indien (° 14 avril 1891).
